--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_40.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>907700.9115036073</v>
+        <v>688438.3017529146</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>326.2719626366464</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>76.30144276124484</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>119.476552708313</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>275.1950371151411</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>111.697516172094</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>28.13446210676943</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>124.0312919752491</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>69.4041478010444</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>129.0246247964033</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.73384166348</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.7791350527408</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.62338840723066</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.5947476878508</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>11.89446409565926</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>130.6312907600188</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.797245289947494</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>171.3670018284221</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>66.79156359954281</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>18.13869167151169</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>219.4423352411109</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385003</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.18768101996882</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>170.0056798468567</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898735</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857187</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692869</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329076</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373712</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789564</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463151</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227414804</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539628</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287488</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689369</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593967</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206845</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373607</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,19 +3478,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463173</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689379</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329096</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689379</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274064</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U44" t="n">
         <v>251.0785952498017</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G46" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>92.92795078438452</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.885894456657</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1667.923377516245</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1667.923377516245</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1282.135124918001</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2620.076926612925</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2366.315141251016</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2366.315141251016</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y2" t="n">
-        <v>2423.485734520778</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.061221751177</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C5" t="n">
-        <v>1452.061221751177</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D5" t="n">
-        <v>1452.061221751177</v>
+        <v>506.2526476006764</v>
       </c>
       <c r="E5" t="n">
-        <v>1066.272969152933</v>
+        <v>506.2526476006764</v>
       </c>
       <c r="F5" t="n">
-        <v>655.2870643633255</v>
+        <v>499.307146851473</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>485.3837427900639</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.661061815299</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.661061815299</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.0636002298164</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C7" t="n">
-        <v>517.0636002298164</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.0636002298164</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>517.0636002298164</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>370.173652731906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>370.173652731906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>212.4252801644362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2571.86495770989</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.86495770989</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2318.103172347981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2318.103172347981</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.334517077867</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>597.8010803716834</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="11">
@@ -5015,70 +5015,70 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>270.0269952192064</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L12" t="n">
-        <v>883.924064976095</v>
+        <v>368.6712744939925</v>
       </c>
       <c r="M12" t="n">
-        <v>1204.259384505797</v>
+        <v>1050.107891292278</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.780040143415</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.1814830641755</v>
+        <v>328.5881531307907</v>
       </c>
       <c r="C13" t="n">
-        <v>234.1814830641755</v>
+        <v>328.5881531307907</v>
       </c>
       <c r="D13" t="n">
-        <v>234.1814830641755</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293931</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924326</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8299478944152</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8299478944152</v>
+        <v>510.2366179610304</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,28 +5264,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>485.4047026089419</v>
+        <v>246.2867756623456</v>
       </c>
       <c r="L15" t="n">
-        <v>732.1698305154059</v>
+        <v>729.7725717625765</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1050.107891292278</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.6859735286132</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C16" t="n">
-        <v>665.6859735286132</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D16" t="n">
-        <v>515.5693341162774</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>367.6562405338843</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>220.766293035974</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>220.766293035974</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1167.045461725961</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1167.045461725961</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>877.6282916890001</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>877.6282916890001</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>506.3718661188911</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>1120.26893587578</v>
       </c>
       <c r="M18" t="n">
-        <v>1323.128242957076</v>
+        <v>1440.604255405482</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.648898594694</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O18" t="n">
-        <v>2337.112659897353</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>418.0853130833037</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>249.1491301553968</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>99.03249074306109</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>99.03249074306109</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.867621687013</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>836.769640042142</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.9770608986119</v>
+        <v>599.7337779135435</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5747,7 +5747,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>138.7081686256434</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>138.7081686256434</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M21" t="n">
-        <v>629.3975440735812</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337732</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>484.0375086983735</v>
+        <v>4036.895039969636</v>
       </c>
       <c r="C22" t="n">
-        <v>315.1013257704666</v>
+        <v>4036.895039969636</v>
       </c>
       <c r="D22" t="n">
-        <v>315.1013257704666</v>
+        <v>3886.778400557301</v>
       </c>
       <c r="E22" t="n">
-        <v>315.1013257704666</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F22" t="n">
-        <v>315.1013257704666</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>4218.543504799876</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>4218.543504799876</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>4218.543504799876</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.6859735286132</v>
+        <v>4218.543504799876</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>493.5013994809973</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>813.8367190106992</v>
+        <v>1539.62186189329</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>2344.033440157441</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3606.045341414584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3606.045341414584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3606.045341414584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3606.045341414584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929844</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4439.275638443874</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4150.146999657431</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>3895.462511451545</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>3606.045341414584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>3606.045341414584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y25" t="n">
-        <v>3606.045341414584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>469.5954827887332</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>699.5585886570824</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.893908186784</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N27" t="n">
-        <v>1364.414563824402</v>
+        <v>2080.88708496141</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2329.640499045373</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2329.640499045373</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W28" t="n">
-        <v>731.31772835508</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X28" t="n">
-        <v>503.3281774570627</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.3281774570627</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>138.7081686256435</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>479.0983322613956</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1241.529009893327</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>2045.940588157477</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108343</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986525</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942119</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771665</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859419</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862499</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045224</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010332</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6695,55 +6695,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126483</v>
+        <v>2501.346796321636</v>
       </c>
       <c r="L33" t="n">
-        <v>493.5013994809974</v>
+        <v>3101.048493576814</v>
       </c>
       <c r="M33" t="n">
-        <v>813.8367190106992</v>
+        <v>3421.383813106516</v>
       </c>
       <c r="N33" t="n">
-        <v>1618.24829727485</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O33" t="n">
-        <v>2145.820610447073</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>168.0712636632638</v>
       </c>
       <c r="L36" t="n">
-        <v>370.331558629556</v>
+        <v>781.9683334201525</v>
       </c>
       <c r="M36" t="n">
-        <v>1138.699705022017</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022017</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>3481.793971740471</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>3381.677879852605</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>3300.381331480311</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>3221.288328937958</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>3143.218472480089</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>3043.86324183995</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427935</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>2919.550824089923</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782178</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>3217.020063255133</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>3532.182679494606</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490133</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746025</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979766</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813793</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.59956061616</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571753</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.534317401301</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>4312.2257696549</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>4126.361372489055</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492135</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>3746.594833634159</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>3594.62234553067</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7169,10 +7169,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1528.62340110598</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>3481.793971740468</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>3381.677879852602</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>3300.381331480308</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>3221.288328937956</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>3143.218472480086</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>3043.863241839948</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982977</v>
+        <v>2962.265324427932</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>2919.550824089921</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782175</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>3217.02006325513</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>3532.182679494604</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490131</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746023</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979765</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813792</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.599560616159</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571751</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.534317401299</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>4312.225769654897</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>4126.361372489051</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492132</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>3746.594833634156</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>3594.622345530667</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,37 +7400,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M42" t="n">
-        <v>1483.830826756747</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>3481.79397174047</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>3381.677879852604</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>3300.381331480309</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>3221.288328937957</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>3143.218472480087</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>3043.86324183995</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427934</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>2919.550824089923</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782177</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>3217.020063255132</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>3532.182679494606</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490133</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746025</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979766</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813793</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.59956061616</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571753</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.534317401301</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>4312.225769654899</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>4126.361372489053</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492134</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>3746.594833634157</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>3594.622345530669</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822461</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="K45" t="n">
-        <v>389.4337831538635</v>
+        <v>2745.388427942953</v>
       </c>
       <c r="L45" t="n">
-        <v>619.3968890222127</v>
+        <v>3359.285497699841</v>
       </c>
       <c r="M45" t="n">
-        <v>1387.765035414674</v>
+        <v>3666.605630979803</v>
       </c>
       <c r="N45" t="n">
-        <v>2192.176613678825</v>
+        <v>4045.44453396283</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>4045.44453396283</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>216.9038434870662</v>
+        <v>822.9089152986048</v>
       </c>
       <c r="C46" t="n">
-        <v>216.9038434870662</v>
+        <v>653.9727323706981</v>
       </c>
       <c r="D46" t="n">
-        <v>216.9038434870662</v>
+        <v>653.9727323706981</v>
       </c>
       <c r="E46" t="n">
-        <v>216.9038434870662</v>
+        <v>506.0596387883051</v>
       </c>
       <c r="F46" t="n">
-        <v>216.9038434870662</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>1293.974550165805</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>1004.557380128844</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305963</v>
+        <v>1004.557380128844</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870662</v>
+        <v>1004.557380128844</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>455.7681028892778</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,10 +9498,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,16 +9729,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>94.57074316089688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.5015852007214</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,10 +10683,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,19 +11148,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>30.51321983710892</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>65.99208461098169</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31908067968536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.0193642718769</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>155.6060616385585</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6238027329838</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>54.34265356061502</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.70200486383477</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>233.9989516523163</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.105225817278381</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.64429916196848</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>51.54188121153254</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>48.00368395686506</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>159.2096925394434</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="10">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="J2" t="n">
         <v>782058.1194754179</v>
@@ -26341,19 +26341,19 @@
         <v>821041.7698642844</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642847</v>
+        <v>821041.7698642845</v>
       </c>
       <c r="M2" t="n">
         <v>821041.7698642845</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642849</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642844</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754174</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371243</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758974</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758693</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759038</v>
       </c>
       <c r="K4" t="n">
         <v>23206.58093189629</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189629</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759969</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002536</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710229</v>
+        <v>9155.6734057102</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202548</v>
+        <v>599123.5526202543</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202546</v>
+        <v>599123.5526202545</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.963359229</v>
+        <v>164122.9633592294</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361251</v>
+        <v>689282.9998361252</v>
       </c>
       <c r="G6" t="n">
-        <v>689282.9998361251</v>
+        <v>689282.9998361253</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361252</v>
+        <v>689282.9998361253</v>
       </c>
       <c r="I6" t="n">
         <v>689282.9998361254</v>
       </c>
       <c r="J6" t="n">
-        <v>512859.7806435323</v>
+        <v>512859.7806435325</v>
       </c>
       <c r="K6" t="n">
-        <v>645614.5710086501</v>
+        <v>645614.5710086504</v>
       </c>
       <c r="L6" t="n">
-        <v>700120.0831123629</v>
+        <v>700120.0831123628</v>
       </c>
       <c r="M6" t="n">
         <v>565319.0678785257</v>
       </c>
       <c r="N6" t="n">
-        <v>700120.0831123631</v>
+        <v>700120.0831123625</v>
       </c>
       <c r="O6" t="n">
         <v>700120.0831123627</v>
       </c>
       <c r="P6" t="n">
-        <v>689282.9998361256</v>
+        <v>689282.9998361248</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26814,10 +26814,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964054</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>80.60408310506506</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>140.1468775964129</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.19271039829698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>28.9878097027507</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>294.307617312482</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>48.72773564921602</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>38.46332039683776</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>23.26810562024427</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>326.5485795139135</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>50.38442083372242</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>76.01690022188684</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>83.12091415361559</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,13 +31373,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31607,13 +31607,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>47.93166030412434</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>364.7487851197818</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31859,7 +31859,7 @@
         <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>256.0835254867492</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>286.6638531320888</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32327,13 +32327,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>104.8660281469031</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32491,7 +32491,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
@@ -32552,28 +32552,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>172.0748039578141</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>98.26475990091052</v>
       </c>
       <c r="N24" t="n">
-        <v>405.1037147397952</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>249.5159911824343</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>226.8065129469055</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>232.7477698912079</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>281.635251604304</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>167.5011309315513</v>
       </c>
       <c r="L36" t="n">
-        <v>43.58723363729388</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>384.8590530047759</v>
+        <v>107.5154450020462</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>371.8925761935062</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041481</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5433631145231033</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>34.66489630849378</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>174.5554583423439</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>688.3198149477633</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35507,10 +35507,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>488.3694910103342</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>413.2876511703084</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35975,13 +35975,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>289.35438937251</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>495.6458337857957</v>
+        <v>313.6340689672595</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>421.8357897288921</v>
       </c>
       <c r="N24" t="n">
-        <v>753.1043770000155</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>376.1397892206539</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>296.902026596733</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>343.8284481169213</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>90.15152544676344</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.639660295206</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.834318659551</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.346077009569</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352441</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502433</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414412</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>605.7592901567457</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>532.9013264365891</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>29.65969195719234</v>
       </c>
       <c r="L36" t="n">
-        <v>275.8731991608789</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>242.7250190827576</v>
+        <v>431.0864748300278</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>363.7077932351219</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>623.1586510257913</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>127.1671611527427</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>382.665558568714</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556565</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187487</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4487954.301048736</v>
+        <v>4480937.286157025</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222670.3503077609</v>
+        <v>617270.1796559175</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6866658.509440955</v>
+        <v>6866658.509440956</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>159.2945703679489</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.0310041287607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71481492008162</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>185.58036925918</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>96.22254942944286</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>36.1772240484768</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>208.3423105940807</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>204.0846336011989</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.989590223367</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>99.54252204359038</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274228</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>88.09226141801031</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>38.66072130767871</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>12.68762643336706</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>160.3892085954886</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>92.9686012849112</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>157.5315691135827</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498027</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.48514811101259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5.492195925387557</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>237.5760135502623</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>71.96323264286308</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.3420011018088</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6793845477831</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>85.20934657025013</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>140.8721210574296</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>85.88932567064465</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>235.7154930632486</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>2072.529454785695</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3069090307624</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3069090307624</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>107.1902696184267</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>107.1902696184267</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>107.1902696184267</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.7731851199076</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>819.7731851199076</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>819.7731851199076</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2544.925907175541</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2326.291240147604</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.7731851199076</v>
+        <v>2072.529454785695</v>
       </c>
     </row>
     <row r="6">
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>662.1694145060392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>662.1694145060392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>372.9958041606071</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.293017861605</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>365.0435780055836</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.892857925727</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.892857925727</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286579</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286579</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.726987855212</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N12" t="n">
-        <v>1569.24764349283</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>592.5368061590563</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="C13" t="n">
-        <v>592.5368061590563</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
         <v>208.7516828383384</v>
@@ -5196,7 +5196,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>820.5263570570736</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X13" t="n">
-        <v>592.5368061590563</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y13" t="n">
-        <v>592.5368061590563</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1559.410052240715</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.0328757364142</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169049</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799443</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X16" t="n">
-        <v>330.8254548799443</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.0328757364142</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5497,34 +5497,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L18" t="n">
-        <v>618.8589595388348</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1942790685366</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.0756695821905</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>407.1394866542836</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>407.1394866542836</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>259.2263930718905</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>259.2263930718905</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104475</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X19" t="n">
-        <v>757.7241344124302</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y19" t="n">
-        <v>757.7241344124302</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>904.39166832551</v>
+        <v>1029.165307834915</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.726987855212</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3851.092804976971</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3851.092804976971</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3700.976165564636</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3553.063071982242</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3553.063071982242</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3553.063071982242</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4260.730820705228</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>4260.730820705228</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>4260.730820705228</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4032.741269807211</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>4032.741269807211</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5977,64 +5977,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028559</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1214.889396603096</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>657.1994242851239</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>657.1994242851239</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0827848727882</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G25" t="n">
         <v>359.1696912903951</v>
@@ -6144,7 +6144,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1139.873463389028</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1139.873463389028</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>885.1889751831412</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>885.1889751831412</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>657.1994242851239</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>657.1994242851239</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1204.259384505796</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1548.780040143414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4037.655901217365</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3868.719718289458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3718.603078877122</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4525.994054365625</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4525.994054365625</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4271.309566159738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>4271.309566159738</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>4271.309566159738</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>4219.304366047604</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126483</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L30" t="n">
-        <v>877.4353633695371</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>1204.259384505796</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.780040143414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.293494467822</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.508079257328</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3794404708858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>869.3794404708858</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>579.9622704339253</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="X31" t="n">
-        <v>579.9622704339253</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.1696912903951</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>883.9240649760945</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1204.259384505796</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1548.780040143414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6931,34 +6931,34 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6976,10 +6976,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1204.259384505796</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1548.780040143414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>709.4512536188996</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W37" t="n">
-        <v>420.034083581939</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X37" t="n">
-        <v>420.034083581939</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.034083581939</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,25 +7177,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,22 +7256,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>904.3916683255102</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.726987855212</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1569.24764349283</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O39" t="n">
-        <v>1818.001057576792</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P39" t="n">
-        <v>2338.301679312539</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3628.091576844582</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4574.34574781068</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4574.34574781068</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4285.217109024238</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>4030.532620818351</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>4030.532620818351</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>4030.532620818351</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>3809.740041674821</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>388.8958536704856</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1157.264000062947</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>333.7051469529993</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>333.7051469529993</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247865</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>964.1357418247865</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>964.1357418247865</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>736.1461909267691</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>515.353611783239</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.405785702849</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.8041243279824</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C46" t="n">
-        <v>557.8041243279824</v>
+        <v>334.3919945291553</v>
       </c>
       <c r="D46" t="n">
-        <v>407.6874849156467</v>
+        <v>334.3919945291553</v>
       </c>
       <c r="E46" t="n">
-        <v>407.6874849156467</v>
+        <v>334.3919945291553</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>334.3919945291553</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>785.7936752259998</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X46" t="n">
-        <v>557.8041243279824</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y46" t="n">
-        <v>557.8041243279824</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>373.1879724591385</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>469.4054134828314</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>183.3096675369187</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,19 +10913,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>178.3913131276568</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>313.5422489902998</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>60.52321160020205</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>107.7732413388905</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>154.5591946652608</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.104359867889002</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>133.5789023442194</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>55.94522708262492</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>64.0159919448065</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
-        <v>167.0995052410822</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>192.4286140582157</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>48.94698478632867</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>95.28358845576476</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.48997908012853</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>24.24142543582019</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>63.40612644796222</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>4.548926965501636</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>80.60424279273293</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642832</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="J2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="M2" t="n">
         <v>782058.119475418</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754182</v>
-      </c>
-      <c r="L2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
         <v>782058.1194754179</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.119475418</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>5.056512730102795e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905757877</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
@@ -26441,22 +26441,22 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905757892</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.793690575917</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758299</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710317</v>
+        <v>9155.673405710113</v>
       </c>
       <c r="C6" t="n">
         <v>599123.5526202546</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202545</v>
+        <v>599123.5526202547</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592293</v>
+        <v>163148.3720995077</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361255</v>
+        <v>688308.4085764035</v>
       </c>
       <c r="G6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764033</v>
       </c>
       <c r="I6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="J6" t="n">
-        <v>512859.7806435326</v>
+        <v>511885.1893838107</v>
       </c>
       <c r="K6" t="n">
-        <v>689282.9998361256</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="L6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764037</v>
       </c>
       <c r="M6" t="n">
-        <v>554481.9846022878</v>
+        <v>553507.3933425667</v>
       </c>
       <c r="N6" t="n">
-        <v>689282.9998361254</v>
+        <v>688308.4085764037</v>
       </c>
       <c r="O6" t="n">
-        <v>689282.9998361254</v>
+        <v>688308.4085764039</v>
       </c>
       <c r="P6" t="n">
-        <v>689282.9998361251</v>
+        <v>688308.4085764037</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.320640912628494e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.320640912628494e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.320640912628494e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>195.3884712527341</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>213.2069345272928</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>114.5949873389693</v>
+        <v>96.50703242634965</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>196.3500008130818</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>78.19316337952867</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>175.9683149015421</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>43.79533272974726</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>161.1882581698086</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>15.93318254099017</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>49.07295097462197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.478374700808453e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.780852451252875e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31141,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31378,10 +31378,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653259</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,10 +31840,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -31852,25 +31852,25 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>238.7786052255657</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,16 +32077,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>238.6684942258977</v>
+        <v>416.3431514798385</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32098,10 +32098,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32314,28 +32314,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>194.5877923618781</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,16 +32490,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,16 +32551,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>294.0351935977453</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32575,13 +32575,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>116.1540744796862</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,40 +32940,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,34 +33022,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,34 +33259,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>48.48571443651693</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>6.554244047027794</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3268674777241</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,40 +33651,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,34 +33733,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>147.3268674777241</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,19 +33970,19 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33991,13 +33991,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.0578460103733</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>147.3268674777244</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35500,19 +35500,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>586.7792674857859</v>
       </c>
       <c r="O12" t="n">
-        <v>230.591728014694</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>562.2395240538793</v>
+        <v>739.9141813078201</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>542.5884546220983</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>526.3211591213303</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>338.063701399498</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36223,7 +36223,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>439.7251043076678</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>41.17563361490036</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>175.1095124747365</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>330.1252738750094</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>379.6128330013091</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>470.8978973057057</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>47.04960104432353</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>288.1533596602009</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>646.7368223883127</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>495.3275297379446</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4480937.286157025</v>
+        <v>4485876.549006056</v>
       </c>
     </row>
     <row r="7">
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>70.80276983270126</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274228</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1435,7 +1435,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.646004125382166</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>38.66072130767871</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>64.34190763938388</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750035</v>
+        <v>188.1607094910709</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>97.24018360678589</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>28.56876306769571</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>237.5760135502623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>155.8385935972304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,52 +3666,52 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>115.5269768002176</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>207.0920728594998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>85.88932567064465</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
         <v>211.6913543878343</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -5026,37 +5026,37 @@
         <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5065,13 +5065,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465303</v>
@@ -5117,10 +5117,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="K12" t="n">
         <v>222.5746515181233</v>
@@ -5132,10 +5132,10 @@
         <v>772.8730769161742</v>
       </c>
       <c r="N12" t="n">
-        <v>1353.784551727102</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O12" t="n">
-        <v>2023.248313029762</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P12" t="n">
         <v>2543.548934765509</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.8029164824583</v>
+        <v>247.802916482459</v>
       </c>
       <c r="C13" t="n">
-        <v>247.8029164824583</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>247.8029164824583</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>696.5850465240064</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259884</v>
+        <v>468.5954956259891</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.8029164824583</v>
+        <v>247.802916482459</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,10 +5354,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
         <v>508.1073603047985</v>
@@ -5418,22 +5418,22 @@
         <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,7 +5597,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626376</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L18" t="n">
         <v>1050.793780719526</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1322.84934122136</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1322.84934122136</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.84934122136</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.84934122136</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1322.84934122136</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5758,7 +5758,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5773,13 +5773,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,10 +5828,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047985</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632138</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D25" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
         <v>359.1696912903951</v>
@@ -6144,7 +6144,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>1111.565224087838</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1004.256011089124</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>1004.256011089124</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1341.503549752619</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.503549752619</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7602,10 +7602,10 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>755.183133481126</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
         <v>545.9992215018333</v>
@@ -7636,10 +7636,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>334.3919945291553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>334.3919945291553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>334.3919945291553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>334.3919945291553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>731.3177283550796</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>164.6008169732457</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>107.7732413388905</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>133.5789023442194</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338571</v>
+        <v>33.38685156731836</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>154.8974597170421</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>197.1408923213415</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>48.94698478632867</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,19 +25365,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>96.29904972659759</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>33.08849621799476</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.43092547709125</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>80.60424279273293</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
@@ -26325,28 +26325,28 @@
         <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754179</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
       <c r="N2" t="n">
         <v>782058.1194754179</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>5.148837678054155e-11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,7 +26426,7 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757877</v>
+        <v>787.7936905757879</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758299</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710113</v>
+        <v>9155.673405709967</v>
       </c>
       <c r="C6" t="n">
         <v>599123.5526202546</v>
@@ -26530,40 +26530,40 @@
         <v>599123.5526202547</v>
       </c>
       <c r="E6" t="n">
-        <v>163148.3720995077</v>
+        <v>164025.5042332567</v>
       </c>
       <c r="F6" t="n">
-        <v>688308.4085764035</v>
+        <v>689185.5407101535</v>
       </c>
       <c r="G6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="H6" t="n">
-        <v>688308.4085764033</v>
+        <v>689185.5407101531</v>
       </c>
       <c r="I6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101531</v>
       </c>
       <c r="J6" t="n">
-        <v>511885.1893838107</v>
+        <v>512762.3215175601</v>
       </c>
       <c r="K6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101533</v>
       </c>
       <c r="L6" t="n">
-        <v>688308.4085764037</v>
+        <v>689185.5407101533</v>
       </c>
       <c r="M6" t="n">
-        <v>553507.3933425667</v>
+        <v>554384.5254763162</v>
       </c>
       <c r="N6" t="n">
-        <v>688308.4085764037</v>
+        <v>689185.5407101533</v>
       </c>
       <c r="O6" t="n">
-        <v>688308.4085764039</v>
+        <v>689185.5407101534</v>
       </c>
       <c r="P6" t="n">
-        <v>688308.4085764037</v>
+        <v>689185.5407101533</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26925,10 +26925,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>6.436047097567693e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,10 +27162,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>6.436047097567693e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>96.50703242634965</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>-6.436047097567693e-14</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.780852451252875e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134861</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31852,13 +31852,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>238.7786052255657</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>199.202266429772</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,16 +32253,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32317,16 +32317,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318327</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.920986939093</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>586.7792674857859</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>450.468341262057</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700523</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
